--- a/data/trans_dic/P1804_2016_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P1804_2016_2023-Clase-trans_dic.xlsx
@@ -612,7 +612,7 @@
         <v>0.07169379573944866</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.08847027550021473</v>
+        <v>0.08847027550021472</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.1325611681738735</v>
@@ -624,7 +624,7 @@
         <v>0.09891070505020121</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.09960039574907656</v>
+        <v>0.09960039574907655</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.04871009572365671</v>
+        <v>0.05010394241316195</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.06624646546973402</v>
+        <v>0.06567754905456508</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.09425484693655296</v>
+        <v>0.09907586315380083</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.09002016362416211</v>
+        <v>0.0884735384322497</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.07868095366822159</v>
+        <v>0.07830506959550691</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.08145899388280078</v>
+        <v>0.082076482702197</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.09958180789355464</v>
+        <v>0.10123431761804</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.11984652772748</v>
+        <v>0.1222847669296261</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1719862148877412</v>
+        <v>0.1782705853372658</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1407259237865359</v>
+        <v>0.1384024683484119</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1233092618040259</v>
+        <v>0.1226713044240487</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1195407232966838</v>
+        <v>0.1186811501201231</v>
       </c>
     </row>
     <row r="7">
@@ -694,7 +694,7 @@
         <v>0.04701958891714694</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.09314898055039102</v>
+        <v>0.093148980550391</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.1039439248260649</v>
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02914796292028348</v>
+        <v>0.02786150831846791</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.06400670253021053</v>
+        <v>0.06426836686923232</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0748227631288723</v>
+        <v>0.07408798060541437</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.08638318957750625</v>
+        <v>0.08633798163507712</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.05679646826245312</v>
+        <v>0.05710420521134744</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.08256618421861717</v>
+        <v>0.0836395574292399</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07643733649090648</v>
+        <v>0.07028271860947095</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1273275125237276</v>
+        <v>0.1305205502321233</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1439318950334338</v>
+        <v>0.144170638687886</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1436651521571031</v>
+        <v>0.1420907574251549</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.09886278302213937</v>
+        <v>0.09682194761477088</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1269521621832649</v>
+        <v>0.1269630816763108</v>
       </c>
     </row>
     <row r="10">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04266259879762675</v>
+        <v>0.04455322059033214</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05339050053673931</v>
+        <v>0.05370412104879915</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.07431187079423178</v>
+        <v>0.07509410002164651</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.06019177992094755</v>
+        <v>0.05746663483729089</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.05760470783075843</v>
+        <v>0.05806349999167455</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.06167773550283752</v>
+        <v>0.06229499726115906</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.08555820059924815</v>
+        <v>0.08677231527452453</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1098715300847099</v>
+        <v>0.1086052057421731</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.176259020903517</v>
+        <v>0.1761472803879328</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1477706743923618</v>
+        <v>0.1443767651036218</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.09645306483140571</v>
+        <v>0.09779700894928617</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1081863521473404</v>
+        <v>0.1099396009001837</v>
       </c>
     </row>
     <row r="13">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.05634745786946985</v>
+        <v>0.05638877042406024</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03184762260370343</v>
+        <v>0.03145057728532696</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0819240877377818</v>
+        <v>0.08116278639019804</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.07181242651335849</v>
+        <v>0.07114450089986844</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.07136419947548488</v>
+        <v>0.07176174896348053</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.0522549125571468</v>
+        <v>0.05230860817023704</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.08502517550295938</v>
+        <v>0.08639297773467638</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06196553051606286</v>
+        <v>0.0572522405211492</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1236469831588764</v>
+        <v>0.12356488465917</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1064555809934273</v>
+        <v>0.1076405396263851</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.09506742812595512</v>
+        <v>0.09615306514687534</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.07428247452441021</v>
+        <v>0.07464461756483867</v>
       </c>
     </row>
     <row r="16">
@@ -940,7 +940,7 @@
         <v>0.05740092643188545</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.05377783525503769</v>
+        <v>0.05377783525503768</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.0973544205079664</v>
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0399767803683929</v>
+        <v>0.03944096411047928</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03595098365071273</v>
+        <v>0.03361055011146627</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.07652225629004043</v>
+        <v>0.07762704846188327</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.06762229007561131</v>
+        <v>0.06886459167011116</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.06414163647976634</v>
+        <v>0.06630361506415411</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.06009281446816668</v>
+        <v>0.05988087185284845</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.07936194730331007</v>
+        <v>0.07915063093783904</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.08284079897215002</v>
+        <v>0.08581295161634854</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1210111683739072</v>
+        <v>0.1204908036449223</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1032900146484009</v>
+        <v>0.1050242432746604</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.09450441725892125</v>
+        <v>0.09412382750581917</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.08722618906183162</v>
+        <v>0.08879121770233964</v>
       </c>
     </row>
     <row r="19">
@@ -1028,13 +1028,13 @@
         <v>0.08458574745793791</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.04894654023426995</v>
+        <v>0.04894654023426993</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.0788440674975861</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.04168427579764165</v>
+        <v>0.04168427579764166</v>
       </c>
     </row>
     <row r="20">
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.03478675906837003</v>
+        <v>0.03449305712790323</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.002519911995495882</v>
+        <v>0.003092153336220608</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.06800137319073664</v>
+        <v>0.06977797904666343</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.03847752920012317</v>
+        <v>0.03795154837167247</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.06483529781980336</v>
+        <v>0.06351193579295139</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.0325528244686598</v>
+        <v>0.03234132621344007</v>
       </c>
     </row>
     <row r="21">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.08965235203904373</v>
+        <v>0.08765639813543309</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.06172068240816487</v>
+        <v>0.05728349465505017</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1059017267641549</v>
+        <v>0.1081330489305904</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.06387110713157432</v>
+        <v>0.06318399494533719</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.09704643421207304</v>
+        <v>0.0954283275654651</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.05485286866508358</v>
+        <v>0.05479292168378512</v>
       </c>
     </row>
     <row r="22">
@@ -1110,7 +1110,7 @@
         <v>0.09964598026110015</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.08421205808110852</v>
+        <v>0.08421205808110849</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.08176562977763695</v>
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.05544711100685953</v>
+        <v>0.05553609423705755</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.05352578406589123</v>
+        <v>0.05343349248071508</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.08989159128474265</v>
+        <v>0.08925941618387541</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.07578940529908307</v>
+        <v>0.07637536874922611</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.0750069585581645</v>
+        <v>0.07561107857226891</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.06755461476690972</v>
+        <v>0.06734866383481056</v>
       </c>
     </row>
     <row r="24">
@@ -1153,22 +1153,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.07262536586303797</v>
+        <v>0.07236169668391242</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.07208477546370873</v>
+        <v>0.07264228203729658</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1105627020296532</v>
+        <v>0.1112521153902732</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.09216462367182811</v>
+        <v>0.0929291390686474</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.08867297421300405</v>
+        <v>0.08854496336169571</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.07998152397193177</v>
+        <v>0.0803887398571501</v>
       </c>
     </row>
     <row r="25">
@@ -1357,22 +1357,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>20901</v>
+        <v>21499</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>36476</v>
+        <v>36163</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>32712</v>
+        <v>34385</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>43751</v>
+        <v>42999</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>61068</v>
+        <v>60776</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>84443</v>
+        <v>85083</v>
       </c>
     </row>
     <row r="7">
@@ -1383,22 +1383,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>42730</v>
+        <v>43439</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>65990</v>
+        <v>67332</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>59689</v>
+        <v>61870</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>68394</v>
+        <v>67265</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>95706</v>
+        <v>95211</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>123919</v>
+        <v>123028</v>
       </c>
     </row>
     <row r="8">
@@ -1465,22 +1465,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>10995</v>
+        <v>10510</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>30929</v>
+        <v>31055</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>27854</v>
+        <v>27581</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>36552</v>
+        <v>36533</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>42569</v>
+        <v>42800</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>74834</v>
+        <v>75807</v>
       </c>
     </row>
     <row r="11">
@@ -1491,22 +1491,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>28834</v>
+        <v>26513</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>61526</v>
+        <v>63069</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>53582</v>
+        <v>53671</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>60791</v>
+        <v>60125</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>74098</v>
+        <v>72568</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>115064</v>
+        <v>115074</v>
       </c>
     </row>
     <row r="12">
@@ -1573,22 +1573,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>22266</v>
+        <v>23253</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>25180</v>
+        <v>25328</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>12345</v>
+        <v>12475</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>11286</v>
+        <v>10775</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>39634</v>
+        <v>39950</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>40652</v>
+        <v>41059</v>
       </c>
     </row>
     <row r="15">
@@ -1599,22 +1599,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>44654</v>
+        <v>45288</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>51817</v>
+        <v>51220</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>29281</v>
+        <v>29262</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>27707</v>
+        <v>27070</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>66363</v>
+        <v>67288</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>71307</v>
+        <v>72462</v>
       </c>
     </row>
     <row r="16">
@@ -1681,22 +1681,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>64779</v>
+        <v>64827</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>36047</v>
+        <v>35597</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>67659</v>
+        <v>67030</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>61737</v>
+        <v>61163</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>140981</v>
+        <v>141766</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>104068</v>
+        <v>104175</v>
       </c>
     </row>
     <row r="19">
@@ -1707,22 +1707,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>97748</v>
+        <v>99321</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>70135</v>
+        <v>64801</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>102117</v>
+        <v>102049</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>91520</v>
+        <v>92538</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>187807</v>
+        <v>189952</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>147937</v>
+        <v>148658</v>
       </c>
     </row>
     <row r="20">
@@ -1789,22 +1789,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>24814</v>
+        <v>24481</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>20419</v>
+        <v>19090</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>56492</v>
+        <v>57308</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>56184</v>
+        <v>57216</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>87165</v>
+        <v>90103</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>84059</v>
+        <v>83762</v>
       </c>
     </row>
     <row r="23">
@@ -1815,22 +1815,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>49260</v>
+        <v>49129</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>47051</v>
+        <v>48739</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>89336</v>
+        <v>88952</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>85819</v>
+        <v>87259</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>128427</v>
+        <v>127910</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>122013</v>
+        <v>124202</v>
       </c>
     </row>
     <row r="24">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>9989</v>
+        <v>9905</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>598</v>
+        <v>734</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>73579</v>
+        <v>75502</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>32374</v>
+        <v>31931</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>88771</v>
+        <v>86959</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>35111</v>
+        <v>34883</v>
       </c>
     </row>
     <row r="27">
@@ -1923,22 +1923,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>25743</v>
+        <v>25170</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>14642</v>
+        <v>13589</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>114588</v>
+        <v>117003</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>53739</v>
+        <v>53161</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>132873</v>
+        <v>130658</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>59164</v>
+        <v>59100</v>
       </c>
     </row>
     <row r="28">
@@ -2005,22 +2005,22 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>187729</v>
+        <v>188030</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>184261</v>
+        <v>183944</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>317461</v>
+        <v>315228</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>275007</v>
+        <v>277133</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>518847</v>
+        <v>523026</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>477682</v>
+        <v>476225</v>
       </c>
     </row>
     <row r="31">
@@ -2031,22 +2031,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>245889</v>
+        <v>244997</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>248150</v>
+        <v>250069</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>390463</v>
+        <v>392898</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>334426</v>
+        <v>337200</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>613379</v>
+        <v>612494</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>565553</v>
+        <v>568432</v>
       </c>
     </row>
     <row r="32">
